--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,73 @@
   </si>
   <si>
     <t>micro_dragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_atk</t>
+  </si>
+  <si>
+    <t>Villager_B_Boy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD|0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prob|0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能表选择类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetSelectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G6" activeCellId="1" sqref="F7 G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -486,9 +553,12 @@
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -502,10 +572,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,10 +601,22 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -536,10 +630,22 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -553,10 +659,20 @@
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -570,7 +686,71 @@
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,42 @@
   </si>
   <si>
     <t>cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critPow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆击概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆击量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" activeCellId="1" sqref="F7 G6"/>
+      <selection activeCell="J4" sqref="J4:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -552,13 +588,16 @@
     <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -581,13 +620,22 @@
         <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,16 +655,25 @@
         <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -639,13 +696,22 @@
         <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -667,12 +733,21 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -694,12 +769,21 @@
       <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -721,12 +805,21 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -748,8 +841,17 @@
       <c r="G7" s="1">
         <v>2</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,14 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Villager_B_Boy_skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Villager_B_Boy_skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Villager_B_Boy_atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,18 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能表选择类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetSelectType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,6 +184,26 @@
   </si>
   <si>
     <t>爆击量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prob|0.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J7"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -593,11 +593,10 @@
     <col min="8" max="8" width="13.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -611,31 +610,28 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,28 +648,25 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -687,31 +680,28 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -725,7 +715,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -742,12 +732,11 @@
       <c r="J4" s="1">
         <v>0</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -761,7 +750,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -778,14 +767,13 @@
       <c r="J5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
@@ -797,7 +785,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -814,14 +802,13 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>24</v>
@@ -833,10 +820,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -850,9 +837,78 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1" t="s">
-        <v>26</v>
+      <c r="K7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,14 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>micro_dragon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>micro_dragon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Villager_B_Boy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,6 +196,37 @@
   </si>
   <si>
     <t>Prob|0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Werewolf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micro_Dragon</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Werewolf_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Werewolf_skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -610,22 +633,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>16</v>
@@ -648,19 +671,19 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>3</v>
@@ -680,22 +703,22 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>11</v>
@@ -703,10 +726,10 @@
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -715,7 +738,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -733,15 +756,15 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -750,10 +773,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
@@ -768,30 +791,30 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -803,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
@@ -811,7 +834,7 @@
         <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -820,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
       </c>
       <c r="G7" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -843,25 +866,25 @@
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -873,15 +896,15 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -890,25 +913,165 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="1">
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
         <v>2</v>
       </c>
-      <c r="G9" s="1">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>45</v>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" fullPrecision="0" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -290,7 +290,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -602,7 +602,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1077,6 +1077,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" fullPrecision="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="152511" fullPrecision="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,9 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Micro_Dragon</t>
-  </si>
-  <si>
     <t>Ghost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,6 +224,14 @@
   </si>
   <si>
     <t>Werewolf_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>micro_dragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>micro_dragon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +607,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -869,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -904,7 +909,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -936,10 +941,10 @@
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
@@ -966,12 +971,12 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>46</v>
@@ -1001,12 +1006,12 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>47</v>
@@ -1036,12 +1041,12 @@
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>47</v>
@@ -1071,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,26 @@
   </si>
   <si>
     <t>micro_dragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -618,13 +638,15 @@
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -647,19 +669,25 @@
         <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,19 +710,25 @@
         <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -717,19 +751,25 @@
         <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -751,20 +791,26 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="1">
-        <v>1</v>
+      <c r="H4" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -786,20 +832,26 @@
       <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="1">
-        <v>1</v>
+      <c r="H5" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -821,20 +873,26 @@
       <c r="G6" s="1">
         <v>3</v>
       </c>
-      <c r="H6" s="1">
-        <v>1</v>
+      <c r="H6" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -856,20 +914,26 @@
       <c r="G7" s="1">
         <v>4</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
+      <c r="H7" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -891,20 +955,26 @@
       <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="1">
-        <v>1</v>
+      <c r="H8" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -926,20 +996,26 @@
       <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="H9" s="1">
-        <v>1</v>
+      <c r="H9" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
@@ -961,20 +1037,26 @@
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="1">
-        <v>1</v>
+      <c r="H10" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
@@ -996,20 +1078,26 @@
       <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="H11" s="1">
-        <v>1</v>
+      <c r="H11" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
@@ -1031,20 +1119,26 @@
       <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="1">
-        <v>1</v>
+      <c r="H12" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
@@ -1066,16 +1160,22 @@
       <c r="G13" s="1">
         <v>2</v>
       </c>
-      <c r="H13" s="1">
-        <v>1</v>
+      <c r="H13" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>52</v>
       </c>
     </row>

--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>表现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,6 +248,54 @@
   </si>
   <si>
     <t>Physic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UB技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prob|0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,15 +668,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
@@ -651,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -660,31 +704,31 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -692,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -704,25 +748,25 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>3</v>
@@ -733,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -742,39 +786,39 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -783,7 +827,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -792,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I4" s="1">
         <v>100</v>
@@ -807,24 +851,24 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -833,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I5" s="1">
         <v>100</v>
@@ -847,34 +891,32 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I6" s="1">
         <v>100</v>
@@ -889,33 +931,33 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
       </c>
       <c r="G7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I7" s="1">
         <v>100</v>
@@ -935,28 +977,28 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I8" s="1">
         <v>100</v>
@@ -971,33 +1013,33 @@
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="1">
         <v>100</v>
@@ -1012,21 +1054,21 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>26</v>
@@ -1035,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10" s="1">
         <v>100</v>
@@ -1053,33 +1095,33 @@
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I11" s="1">
         <v>100</v>
@@ -1094,21 +1136,21 @@
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>26</v>
@@ -1117,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12" s="1">
         <v>100</v>
@@ -1135,33 +1177,33 @@
         <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13" s="1">
         <v>100</v>
@@ -1176,7 +1218,48 @@
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="1">
+        <v>100</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
